--- a/test-coolmate.me/testcase/TC_TimKiem-1st_Final.xlsx
+++ b/test-coolmate.me/testcase/TC_TimKiem-1st_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teomoney/Documents/software_testing_project/test-coolmate.me/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F755F053-847F-4682-9B50-BC9AB08330A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6DCDA8-0C36-CF42-9F6C-627827AE2B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -697,26 +696,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.77734375" customWidth="1"/>
-    <col min="7" max="7" width="40.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
-    <col min="9" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -755,7 +754,7 @@
       </c>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -787,7 +786,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -819,7 +818,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -851,7 +850,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -883,7 +882,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -915,7 +914,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -947,7 +946,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -979,7 +978,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1011,7 +1010,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1043,7 +1042,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1075,7 +1074,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1107,7 +1106,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1139,7 +1138,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1171,7 +1170,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1203,7 +1202,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1235,7 +1234,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1243,7 +1242,7 @@
       <c r="E17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1251,7 +1250,7 @@
       <c r="E18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1259,7 +1258,7 @@
       <c r="E19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1267,7 +1266,7 @@
       <c r="E20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1275,7 +1274,7 @@
       <c r="E21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1283,7 +1282,7 @@
       <c r="E22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1291,7 +1290,7 @@
       <c r="E23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1299,7 +1298,7 @@
       <c r="E24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1307,7 +1306,7 @@
       <c r="E25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
